--- a/TABLEAUD.xlsx
+++ b/TABLEAUD.xlsx
@@ -398,19 +398,15 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>276076.138</v>
+        <v>443303.894</v>
       </c>
       <c r="C2" t="n">
-        <v>279221.43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>279221.431</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0009999999999763531</v>
-      </c>
+        <v>456739.899</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>5235.442238932375</v>
+        <v>8474.428331853616</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +414,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>442224.3449999999</v>
+        <v>12337</v>
       </c>
       <c r="C3" t="n">
-        <v>456115.703</v>
+        <v>12337</v>
       </c>
       <c r="D3" t="n">
-        <v>456139.423</v>
+        <v>12337</v>
       </c>
       <c r="E3" t="n">
-        <v>-23.72000000000003</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6834.478708908517</v>
+        <v>188.4423290818853</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +434,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>354837.0969999998</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>375356.9899999998</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>479907.2499999998</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-104550.26</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6611.298307205622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -458,16 +454,16 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>522132.6640000004</v>
+        <v>24834.1</v>
       </c>
       <c r="C5" t="n">
-        <v>532385.0219999995</v>
+        <v>24842.5</v>
       </c>
       <c r="D5" t="n">
-        <v>665130.4219999996</v>
+        <v>24842.5</v>
       </c>
       <c r="E5" t="n">
-        <v>-132745.4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -478,13 +474,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>47299.4</v>
+        <v>3360.84</v>
       </c>
       <c r="C6" t="n">
-        <v>47300.6</v>
+        <v>4000</v>
       </c>
       <c r="D6" t="n">
-        <v>47300.6</v>
+        <v>4000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -600,19 +596,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1642569.644</v>
+        <v>483835.834</v>
       </c>
       <c r="C12" t="n">
-        <v>1690379.744999999</v>
+        <v>497919.399</v>
       </c>
       <c r="D12" t="n">
-        <v>1927699.125999999</v>
+        <v>41179.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-237319.381</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>18681.21925504652</v>
+        <v>8662.870660935501</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUD.xlsx
+++ b/TABLEAUD.xlsx
@@ -398,15 +398,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>443303.894</v>
+        <v>12041.985</v>
       </c>
       <c r="C2" t="n">
-        <v>456739.899</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>13600.811</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13600.812</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0009999999999763531</v>
+      </c>
       <c r="F2" t="n">
-        <v>8474.428331853616</v>
+        <v>230.2008627421538</v>
       </c>
     </row>
     <row r="3">
@@ -414,19 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>12337</v>
+        <v>404029.0060000001</v>
       </c>
       <c r="C3" t="n">
-        <v>12337</v>
+        <v>417407.123</v>
       </c>
       <c r="D3" t="n">
-        <v>12337</v>
+        <v>417407.123</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>188.4423290818853</v>
+        <v>6171.367991187405</v>
       </c>
     </row>
     <row r="4">
@@ -434,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18635.449</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18850.785</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18851.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.7149999999999181</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>346.4859280633987</v>
       </c>
     </row>
     <row r="5">
@@ -454,13 +458,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>24834.1</v>
+        <v>55248.82100000001</v>
       </c>
       <c r="C5" t="n">
-        <v>24842.5</v>
+        <v>55366.70299999999</v>
       </c>
       <c r="D5" t="n">
-        <v>24842.5</v>
+        <v>55366.70299999999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -474,13 +478,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>3360.84</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -596,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>483835.834</v>
+        <v>489955.2610000001</v>
       </c>
       <c r="C12" t="n">
-        <v>497919.399</v>
+        <v>505225.422</v>
       </c>
       <c r="D12" t="n">
-        <v>41179.5</v>
+        <v>505226.138</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.7159999999998945</v>
       </c>
       <c r="F12" t="n">
-        <v>8662.870660935501</v>
+        <v>6748.054781992958</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUD.xlsx
+++ b/TABLEAUD.xlsx
@@ -398,19 +398,19 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>12041.985</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13600.811</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13600.812</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0009999999999763531</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.2008627421538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>404029.0060000001</v>
+        <v>114288.5</v>
       </c>
       <c r="C3" t="n">
-        <v>417407.123</v>
+        <v>116191.52</v>
       </c>
       <c r="D3" t="n">
-        <v>417407.123</v>
+        <v>116191.52</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6171.367991187405</v>
+        <v>1745.707313550705</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>18635.449</v>
+        <v>343034.383</v>
       </c>
       <c r="C4" t="n">
-        <v>18850.785</v>
+        <v>366955.5249999999</v>
       </c>
       <c r="D4" t="n">
-        <v>18851.5</v>
+        <v>367106.2699999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7149999999999181</v>
+        <v>-150.7450000000026</v>
       </c>
       <c r="F4" t="n">
-        <v>346.4859280633987</v>
+        <v>6377.983516866717</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>55248.82100000001</v>
+        <v>157343.506</v>
       </c>
       <c r="C5" t="n">
-        <v>55366.70299999999</v>
+        <v>157833.228</v>
       </c>
       <c r="D5" t="n">
-        <v>55366.70299999999</v>
+        <v>157833.228</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>489955.2610000001</v>
+        <v>614666.389</v>
       </c>
       <c r="C12" t="n">
-        <v>505225.422</v>
+        <v>640980.2729999999</v>
       </c>
       <c r="D12" t="n">
-        <v>505226.138</v>
+        <v>641131.0179999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7159999999998945</v>
+        <v>-150.7450000000026</v>
       </c>
       <c r="F12" t="n">
-        <v>6748.054781992958</v>
+        <v>8123.690830417421</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUD.xlsx
+++ b/TABLEAUD.xlsx
@@ -418,19 +418,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>114288.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116191.52</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116191.52</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1745.707313550705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>343034.383</v>
+        <v>292922.3899999999</v>
       </c>
       <c r="C4" t="n">
-        <v>366955.5249999999</v>
+        <v>298030.049</v>
       </c>
       <c r="D4" t="n">
-        <v>367106.2699999999</v>
+        <v>298030.049</v>
       </c>
       <c r="E4" t="n">
-        <v>-150.7450000000026</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6377.983516866717</v>
+        <v>5446.25923151617</v>
       </c>
     </row>
     <row r="5">
@@ -458,17 +458,13 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>157343.506</v>
+        <v>291920.1330000001</v>
       </c>
       <c r="C5" t="n">
-        <v>157833.228</v>
-      </c>
-      <c r="D5" t="n">
-        <v>157833.228</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+        <v>303023.5049999999</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -478,13 +474,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2300.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2300.6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -600,19 +596,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614666.389</v>
+        <v>587142.523</v>
       </c>
       <c r="C12" t="n">
-        <v>640980.2729999999</v>
+        <v>603354.1539999999</v>
       </c>
       <c r="D12" t="n">
-        <v>641131.0179999999</v>
+        <v>300330.649</v>
       </c>
       <c r="E12" t="n">
-        <v>-150.7450000000026</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8123.690830417421</v>
+        <v>5446.25923151617</v>
       </c>
     </row>
   </sheetData>

--- a/TABLEAUD.xlsx
+++ b/TABLEAUD.xlsx
@@ -438,19 +438,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>292922.3899999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>298030.049</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>298030.049</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5446.25923151617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,17 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>291920.1330000001</v>
+        <v>93962.64</v>
       </c>
       <c r="C5" t="n">
-        <v>303023.5049999999</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>96535.89999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96535.89999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -474,13 +478,13 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>2300</v>
+        <v>62968.60000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2300.6</v>
+        <v>64166.98999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>2300.6</v>
+        <v>64166.98999999999</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -596,19 +600,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587142.523</v>
+        <v>156931.24</v>
       </c>
       <c r="C12" t="n">
-        <v>603354.1539999999</v>
+        <v>160702.89</v>
       </c>
       <c r="D12" t="n">
-        <v>300330.649</v>
+        <v>160702.89</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5446.25923151617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
